--- a/biology/Zoologie/Chaetodon_ornatissimus/Chaetodon_ornatissimus.xlsx
+++ b/biology/Zoologie/Chaetodon_ornatissimus/Chaetodon_ornatissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-papillon orné
 Chaetodon ornatissimus, communément nommé poisson-papillon orné, est une espèce de poisson marin de la famille des Chaetodontidae.
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon orné est un poisson-papillon qui fait partie du sous-genre Citharoedus. En 1984, André Maugé et Roland Bauchot ont proposé d'élever ce sous-genre au rang de genre, ce qui donnerait comme nom scientifique pour ce poisson Citharoedus ornatissimus.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-papillon orné se rencontre dans la région Indo-Pacifique[1], dans les récifs coralliens entre 1 et 40 m de profondeurdans les eaux côtières entre 2 et 50 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-papillon orné se rencontre dans la région Indo-Pacifique, dans les récifs coralliens entre 1 et 40 m de profondeurdans les eaux côtières entre 2 et 50 m de profondeur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale du poisson-papillon orné est de 20 cm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale du poisson-papillon orné est de 20 cm.
 Sa coloration est claire (gris clair bleuté), avec une série de bandes orange en diagonale, descendant de l'arrière vers l'avant du corps.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson corallien qui se nourrit de corail durant la journée.
 </t>
@@ -637,7 +657,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson peut vivre en aquarium, mais il est difficile à nourrir, du fait de son alimentation très spécialisée.
 </t>
